--- a/quod_qa/eq/Basket/ImportFiles/BasketTemplate_withHeader_Mapping1.xlsx
+++ b/quod_qa/eq/Basket/ImportFiles/BasketTemplate_withHeader_Mapping1.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">CLIENT_FIX_CARE_SA1</t>
   </si>
   <si>
-    <t xml:space="preserve">LMT</t>
+    <t xml:space="preserve">MKT</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
@@ -140,8 +140,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -161,22 +161,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,9 +204,6 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -216,13 +213,16 @@
         <v>600</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -232,29 +232,6 @@
       <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -272,59 +249,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
